--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10380" windowWidth="19380" xWindow="-96" yWindow="-96"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11940" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
-    <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
-    <sheet name="StockCategory" r:id="rId3" sheetId="3"/>
-    <sheet name="Supplier" r:id="rId4" sheetId="4"/>
+    <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
   <si>
     <t>TCID</t>
   </si>
@@ -339,9 +340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="120" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,694 +382,370 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="12"/>
-      <b val="true"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1111,149 +787,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1270,10 +889,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1471,21 +1090,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1502,7 +1121,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1554,29 +1173,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.21875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="18" r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1600,11 +1219,11 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="18" r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1614,11 +1233,11 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="64">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="18" r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1628,11 +1247,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="120">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="18" r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1642,34 +1261,34 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="121">
+      <c r="D5" s="66" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6640625" collapsed="false"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1705,11 +1324,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="7">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1725,11 +1344,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="9">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1745,11 +1364,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="11">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1765,11 +1384,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="13">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1785,11 +1404,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="15">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1805,11 +1424,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="17">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1825,11 +1444,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="19">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1845,11 +1464,11 @@
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="21">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1865,11 +1484,11 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="23">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1885,33 +1504,33 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="25">
+      <c r="F11" s="15" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1947,11 +1566,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="27">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1967,11 +1586,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="29">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1987,11 +1606,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="31">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2007,11 +1626,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="33">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2027,11 +1646,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="35">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2047,11 +1666,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="37">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2067,11 +1686,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="39">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -2087,11 +1706,11 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="41">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2107,11 +1726,11 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="43">
+      <c r="F10" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -2127,11 +1746,11 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="45">
+      <c r="F11" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -2147,11 +1766,11 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="47">
+      <c r="F12" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -2167,11 +1786,11 @@
       <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s" s="49">
+      <c r="F13" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -2187,11 +1806,11 @@
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="51">
+      <c r="F14" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -2207,11 +1826,11 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="53">
+      <c r="F15" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2227,11 +1846,11 @@
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="55">
+      <c r="F16" s="31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -2247,11 +1866,11 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="57">
+      <c r="F17" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -2267,11 +1886,11 @@
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="59">
+      <c r="F18" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -2287,11 +1906,11 @@
       <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s" s="61">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2307,33 +1926,33 @@
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="63">
+      <c r="F20" s="35" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.44140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.88671875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -2353,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2369,11 +1988,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="65">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2389,11 +2008,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="67">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -2409,11 +2028,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="69">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2429,11 +2048,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="71">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2449,11 +2068,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="73">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2469,11 +2088,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="75">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -2489,11 +2108,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="77">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -2509,11 +2128,11 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="79">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2529,11 +2148,11 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="81">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -2549,11 +2168,11 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="83">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -2569,11 +2188,11 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="85">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -2589,11 +2208,11 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="87">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -2609,11 +2228,11 @@
       <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s" s="89">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2629,11 +2248,11 @@
       <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="s" s="91">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -2649,11 +2268,11 @@
       <c r="E16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F16" t="s" s="93">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -2669,11 +2288,11 @@
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s" s="95">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -2689,11 +2308,11 @@
       <c r="E18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F18" t="s" s="97">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -2709,11 +2328,11 @@
       <c r="E19" s="3">
         <v>9876543217</v>
       </c>
-      <c r="F19" t="s" s="99">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -2729,11 +2348,11 @@
       <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s" s="101">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -2749,11 +2368,11 @@
       <c r="E21" s="3">
         <v>8765432345</v>
       </c>
-      <c r="F21" t="s" s="103">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -2769,11 +2388,11 @@
       <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s" s="105">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -2789,11 +2408,11 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="107">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2809,11 +2428,11 @@
       <c r="E24" s="5">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="109">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2829,11 +2448,11 @@
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="111">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -2849,11 +2468,11 @@
       <c r="E26" s="5">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="113">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -2869,11 +2488,11 @@
       <c r="E27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="115">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -2889,11 +2508,11 @@
       <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="117">
-        <v>101</v>
-      </c>
-    </row>
-    <row ht="15.6" r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2909,14 +2528,14 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="119">
+      <c r="F29" s="64" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E20"/>
+    <hyperlink ref="E20" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7oclock_OJT\ERP_Hybrid\FileInput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{87F1C94C-9B30-47C4-BF1F-7C530B6F1563}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10380" windowWidth="19380" xWindow="-90" xr2:uid="{971EB3B9-F306-4FE6-9A78-A9C0555783B4}" yWindow="-90"/>
+    <workbookView windowHeight="10380" windowWidth="19380" xWindow="-90" yWindow="-90"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
     <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
     <sheet name="StockCategory" r:id="rId3" sheetId="3"/>
     <sheet name="Supplier" r:id="rId4" sheetId="4"/>
+    <sheet name="Customer" r:id="rId5" sheetId="5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="104">
   <si>
     <t>TCID</t>
   </si>
@@ -333,21 +328,21 @@
     <t>supplierTable</t>
   </si>
   <si>
+    <t>Wait for Customer Link</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="119">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,241 +377,685 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -640,7 +1079,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -663,11 +1102,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -675,6 +1125,7 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -716,6 +1167,80 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -776,7 +1301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -828,7 +1353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1029,22 +1554,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0EC959-34E9-4E2F-B422-5C901D1D33F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.90625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.1796875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.1328125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6328125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="28.75" r="1" spans="1:4" x14ac:dyDescent="1.35">
+    <row ht="28.5" r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1066,13 +1591,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1082,11 +1607,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="45">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="D3" t="s" s="65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1094,13 +1619,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="46">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="121">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1110,8 +1635,8 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="47">
-        <v>101</v>
+      <c r="D5" t="s" s="122">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1121,23 +1646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FF6727-0E52-47F8-AA5A-7BDB66D4C156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.953125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.2265625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.953125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="38.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="32.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+    <row ht="21" r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6" x14ac:dyDescent="0.8">
+    <row ht="15.75" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1173,9 +1698,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row ht="16" r="3" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F2" t="s" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1191,9 +1718,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row ht="16" r="4" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F3" t="s" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1209,9 +1738,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row ht="16" r="5" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F4" t="s" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1227,9 +1758,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row ht="16" r="6" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F5" t="s" s="14">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1245,9 +1778,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row ht="16" r="7" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F6" t="s" s="16">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1263,9 +1798,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row ht="16" r="8" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F7" t="s" s="18">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1281,9 +1818,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row ht="16" r="9" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F8" t="s" s="20">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1299,9 +1838,11 @@
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row ht="16" r="10" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F9" t="s" s="22">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1317,9 +1858,11 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row ht="16" r="11" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F10" t="s" s="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1335,7 +1878,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="26">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1343,23 +1888,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DF49C-824A-475D-AC35-87FC48ADA506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.2265625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.58984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6796875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="36.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+    <row ht="21" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6" x14ac:dyDescent="0.8">
+    <row ht="15.75" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1395,11 +1940,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="3" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F2" t="s" s="28">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1415,11 +1960,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="4" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F3" t="s" s="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1435,11 +1980,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="5" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F4" t="s" s="32">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1455,11 +2000,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="14">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="6" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F5" t="s" s="34">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1475,11 +2020,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="16">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="7" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F6" t="s" s="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1495,11 +2040,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="18">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="8" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F7" t="s" s="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -1515,11 +2060,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="20">
-        <v>102</v>
-      </c>
-    </row>
-    <row ht="16" r="9" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F8" t="s" s="40">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1535,11 +2080,11 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="22">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="10" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F9" t="s" s="42">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1555,11 +2100,11 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="24">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="11" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F10" t="s" s="44">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1575,11 +2120,11 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="26">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="12" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F11" t="s" s="46">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1595,11 +2140,11 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="28">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="13" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F12" t="s" s="48">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1615,11 +2160,11 @@
       <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s" s="30">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="14" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F13" t="s" s="50">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1635,11 +2180,11 @@
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="32">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="15" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F14" t="s" s="52">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1655,11 +2200,11 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="34">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="16" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F15" t="s" s="54">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1675,11 +2220,11 @@
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="36">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="17" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F16" t="s" s="56">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -1695,11 +2240,11 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="38">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="18" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F17" t="s" s="58">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1715,11 +2260,11 @@
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="40">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="19" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F18" t="s" s="60">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1735,11 +2280,11 @@
       <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s" s="42">
-        <v>103</v>
-      </c>
-    </row>
-    <row ht="16" r="20" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F19" t="s" s="62">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1755,7 +2300,7 @@
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="44">
+      <c r="F20" t="s" s="64">
         <v>102</v>
       </c>
     </row>
@@ -1765,23 +2310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CDBDE4-3F31-4FD8-A7BD-2151CDFD58D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.2265625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.90625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.04296875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="27.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="38.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+    <row ht="21" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6" x14ac:dyDescent="0.8">
+    <row ht="15.75" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1817,9 +2362,11 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row ht="16" r="3" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F2" t="s" s="66">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1835,9 +2382,11 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row ht="16" r="4" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F3" t="s" s="68">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1853,9 +2402,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row ht="16" r="5" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F4" t="s" s="70">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1871,9 +2422,11 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row ht="16" r="6" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F5" t="s" s="72">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1889,9 +2442,11 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row ht="16" r="7" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F6" t="s" s="74">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1907,9 +2462,11 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row ht="16" r="8" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F7" t="s" s="76">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1925,9 +2482,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row ht="16" r="9" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F8" t="s" s="78">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1943,9 +2502,11 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row ht="16" r="10" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F9" t="s" s="80">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1961,9 +2522,11 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row ht="16" r="11" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F10" t="s" s="82">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1979,9 +2542,11 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row ht="16" r="12" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F11" t="s" s="84">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -1997,9 +2562,11 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row ht="16" r="13" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F12" t="s" s="86">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -2015,9 +2582,11 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row ht="16" r="14" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F13" t="s" s="88">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -2033,9 +2602,11 @@
       <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row ht="16" r="15" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F14" t="s" s="90">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2051,9 +2622,11 @@
       <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row ht="16" r="16" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F15" t="s" s="92">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -2069,9 +2642,11 @@
       <c r="E16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row ht="16" r="17" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F16" t="s" s="94">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -2087,9 +2662,11 @@
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row ht="16" r="18" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F17" t="s" s="96">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -2105,9 +2682,11 @@
       <c r="E18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row ht="16" r="19" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F18" t="s" s="98">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -2123,9 +2702,11 @@
       <c r="E19" s="3">
         <v>9876543217</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row ht="16" r="20" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F19" t="s" s="100">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -2141,9 +2722,11 @@
       <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row ht="16" r="21" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F20" t="s" s="102">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -2159,9 +2742,11 @@
       <c r="E21" s="3">
         <v>8765432345</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row ht="16" r="22" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F21" t="s" s="104">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -2177,9 +2762,11 @@
       <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row ht="16" r="23" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F22" t="s" s="106">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -2195,9 +2782,11 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row ht="16" r="24" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F23" t="s" s="108">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2213,9 +2802,11 @@
       <c r="E24" s="5">
         <v>10</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row ht="16" r="25" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F24" t="s" s="110">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2231,9 +2822,11 @@
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row ht="16" r="26" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F25" t="s" s="112">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -2249,9 +2842,11 @@
       <c r="E26" s="5">
         <v>10</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row ht="16" r="27" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F26" t="s" s="114">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -2267,9 +2862,11 @@
       <c r="E27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row ht="16" r="28" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F27" t="s" s="116">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="28" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -2285,9 +2882,11 @@
       <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row ht="16" r="29" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F28" t="s" s="118">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="15.75" r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2303,12 +2902,180 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" t="s" s="120">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E20" xr:uid="{EBABBDC3-5AE7-4620-9F55-6EC60C186872}"/>
+    <hyperlink r:id="rId1" ref="E20"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="34.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="10.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row ht="15.75" r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row ht="15.75" r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row ht="15.75" r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row ht="15.75" r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row ht="15.75" r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
@@ -331,10 +331,46 @@
     <t>Wait for Customer Link</t>
   </si>
   <si>
+    <t>Click Customer Link</t>
+  </si>
+  <si>
+    <t>wait for customer number</t>
+  </si>
+  <si>
+    <t>capture customer number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Ameerpet</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -342,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="119">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,693 +411,373 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -1079,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1102,22 +818,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -1125,9 +834,7 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1187,62 +894,9 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1558,7 +1212,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="27">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1605,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="65">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1619,10 +1273,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="121">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1633,10 +1287,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="122">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="66">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1698,9 +1352,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="8">
-        <v>102</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -1718,9 +1370,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>102</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -1738,9 +1388,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>102</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -1758,9 +1406,7 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="14">
-        <v>102</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -1778,9 +1424,7 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="16">
-        <v>102</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
@@ -1798,9 +1442,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="18">
-        <v>102</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -1818,9 +1460,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="20">
-        <v>102</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="3" t="s">
@@ -1838,9 +1478,7 @@
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="22">
-        <v>102</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -1858,9 +1496,7 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="24">
-        <v>102</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -1878,9 +1514,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="26">
-        <v>102</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1892,7 +1526,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1940,9 +1574,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="28">
-        <v>102</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -1960,9 +1592,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="30">
-        <v>102</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -1980,9 +1610,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="32">
-        <v>102</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -2000,9 +1628,7 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="34">
-        <v>102</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -2020,9 +1646,7 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="36">
-        <v>102</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
@@ -2040,9 +1664,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="38">
-        <v>102</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="5" t="s">
@@ -2060,9 +1682,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="40">
-        <v>102</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="5" t="s">
@@ -2080,9 +1700,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="42">
-        <v>102</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="5" t="s">
@@ -2100,9 +1718,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="44">
-        <v>102</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="5" t="s">
@@ -2120,9 +1736,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="46">
-        <v>102</v>
-      </c>
+      <c r="F11" s="6"/>
     </row>
     <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="5" t="s">
@@ -2140,9 +1754,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="48">
-        <v>102</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -2160,9 +1772,7 @@
       <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s" s="50">
-        <v>102</v>
-      </c>
+      <c r="F13" s="6"/>
     </row>
     <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="5" t="s">
@@ -2180,9 +1790,7 @@
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="52">
-        <v>102</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="5" t="s">
@@ -2200,9 +1808,7 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="54">
-        <v>102</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="5" t="s">
@@ -2220,9 +1826,7 @@
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="56">
-        <v>102</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row ht="15.75" r="17" spans="1:6">
       <c r="A17" s="5" t="s">
@@ -2240,9 +1844,7 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="58">
-        <v>102</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row ht="15.75" r="18" spans="1:6">
       <c r="A18" s="5" t="s">
@@ -2260,9 +1862,7 @@
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="60">
-        <v>102</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row ht="15.75" r="19" spans="1:6">
       <c r="A19" s="5" t="s">
@@ -2280,9 +1880,7 @@
       <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s" s="62">
-        <v>102</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row ht="15.75" r="20" spans="1:6">
       <c r="A20" s="3" t="s">
@@ -2300,9 +1898,7 @@
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="64">
-        <v>102</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2314,7 +1910,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2362,9 +1958,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="66">
-        <v>102</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -2382,9 +1976,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="68">
-        <v>102</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -2402,9 +1994,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="70">
-        <v>102</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -2422,9 +2012,7 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="72">
-        <v>102</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -2442,9 +2030,7 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="74">
-        <v>102</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
@@ -2462,9 +2048,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="76">
-        <v>102</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="15.75" r="8" spans="1:6">
       <c r="A8" s="5" t="s">
@@ -2482,9 +2066,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="78">
-        <v>102</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row ht="15.75" r="9" spans="1:6">
       <c r="A9" s="5" t="s">
@@ -2502,9 +2084,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="80">
-        <v>102</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row ht="15.75" r="10" spans="1:6">
       <c r="A10" s="5" t="s">
@@ -2522,9 +2102,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="82">
-        <v>102</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row ht="15.75" r="11" spans="1:6">
       <c r="A11" s="5" t="s">
@@ -2542,9 +2120,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="84">
-        <v>102</v>
-      </c>
+      <c r="F11" s="6"/>
     </row>
     <row ht="15.75" r="12" spans="1:6">
       <c r="A12" s="5" t="s">
@@ -2562,9 +2138,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="86">
-        <v>102</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row ht="15.75" r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -2582,9 +2156,7 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="88">
-        <v>102</v>
-      </c>
+      <c r="F13" s="6"/>
     </row>
     <row ht="15.75" r="14" spans="1:6">
       <c r="A14" s="5" t="s">
@@ -2602,9 +2174,7 @@
       <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s" s="90">
-        <v>102</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row ht="15.75" r="15" spans="1:6">
       <c r="A15" s="5" t="s">
@@ -2622,9 +2192,7 @@
       <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="s" s="92">
-        <v>102</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row ht="15.75" r="16" spans="1:6">
       <c r="A16" s="5" t="s">
@@ -2642,9 +2210,7 @@
       <c r="E16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F16" t="s" s="94">
-        <v>102</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row ht="15.75" r="17" spans="1:6">
       <c r="A17" s="5" t="s">
@@ -2662,9 +2228,7 @@
       <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s" s="96">
-        <v>102</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row ht="15.75" r="18" spans="1:6">
       <c r="A18" s="5" t="s">
@@ -2682,9 +2246,7 @@
       <c r="E18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F18" t="s" s="98">
-        <v>102</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row ht="15.75" r="19" spans="1:6">
       <c r="A19" s="5" t="s">
@@ -2702,9 +2264,7 @@
       <c r="E19" s="3">
         <v>9876543217</v>
       </c>
-      <c r="F19" t="s" s="100">
-        <v>102</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row ht="15.75" r="20" spans="1:6">
       <c r="A20" s="5" t="s">
@@ -2722,9 +2282,7 @@
       <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F20" t="s" s="102">
-        <v>102</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row ht="15.75" r="21" spans="1:6">
       <c r="A21" s="5" t="s">
@@ -2742,9 +2300,7 @@
       <c r="E21" s="3">
         <v>8765432345</v>
       </c>
-      <c r="F21" t="s" s="104">
-        <v>102</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row ht="15.75" r="22" spans="1:6">
       <c r="A22" s="5" t="s">
@@ -2762,9 +2318,7 @@
       <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s" s="106">
-        <v>102</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row ht="15.75" r="23" spans="1:6">
       <c r="A23" s="5" t="s">
@@ -2782,9 +2336,7 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="108">
-        <v>102</v>
-      </c>
+      <c r="F23" s="6"/>
     </row>
     <row ht="15.75" r="24" spans="1:6">
       <c r="A24" s="5" t="s">
@@ -2802,9 +2354,7 @@
       <c r="E24" s="5">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="110">
-        <v>102</v>
-      </c>
+      <c r="F24" s="6"/>
     </row>
     <row ht="15.75" r="25" spans="1:6">
       <c r="A25" s="5" t="s">
@@ -2822,9 +2372,7 @@
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="112">
-        <v>102</v>
-      </c>
+      <c r="F25" s="6"/>
     </row>
     <row ht="15.75" r="26" spans="1:6">
       <c r="A26" s="5" t="s">
@@ -2842,9 +2390,7 @@
       <c r="E26" s="5">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="114">
-        <v>102</v>
-      </c>
+      <c r="F26" s="6"/>
     </row>
     <row ht="15.75" r="27" spans="1:6">
       <c r="A27" s="5" t="s">
@@ -2862,9 +2408,7 @@
       <c r="E27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="116">
-        <v>102</v>
-      </c>
+      <c r="F27" s="6"/>
     </row>
     <row ht="15.75" r="28" spans="1:6">
       <c r="A28" s="5" t="s">
@@ -2882,9 +2426,7 @@
       <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="118">
-        <v>102</v>
-      </c>
+      <c r="F28" s="6"/>
     </row>
     <row ht="15.75" r="29" spans="1:6">
       <c r="A29" s="3" t="s">
@@ -2902,9 +2444,7 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="120">
-        <v>102</v>
-      </c>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2916,19 +2456,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="34.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="39.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="31.42578125" collapsed="false"/>
     <col min="6" max="6" customWidth="true" width="10.7109375" collapsed="false"/>
   </cols>
   <sheetData>
@@ -2968,7 +2508,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="11">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -2986,7 +2528,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="13">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -3004,7 +2548,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="15">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -3022,7 +2568,9 @@
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="17">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -3040,7 +2588,9 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="19">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
@@ -3058,10 +2608,12 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="21">
+        <v>115</v>
+      </c>
     </row>
     <row ht="15.75" r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3070,12 +2622,441 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
+      <c r="F8" t="s" s="23">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="25">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="27">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="31">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s" s="35">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s" s="39">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s" s="41">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s" s="43">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9876543218</v>
+      </c>
+      <c r="F19" t="s" s="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s" s="47">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8765432346</v>
+      </c>
+      <c r="F21" t="s" s="49">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s" s="51">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="53">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="55">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="57">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="59">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="61">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s" s="63">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="15.75" r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s" s="65">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E20"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7oclock_OJT\ERP_Hybrid\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OJT\StockAccounting_Project\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{FFE8BACC-015E-4FB9-90AF-1B45ABC2139B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="10380" windowWidth="19380" xWindow="-90" xr2:uid="{971EB3B9-F306-4FE6-9A78-A9C0555783B4}" yWindow="-90"/>
+    <workbookView activeTab="4" windowHeight="9336" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
     <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
+    <sheet name="StockCategory" r:id="rId3" sheetId="3"/>
+    <sheet name="Supplier" r:id="rId4" sheetId="4"/>
+    <sheet name="Customer" r:id="rId5" sheetId="5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="103">
   <si>
     <t>TCID</t>
   </si>
@@ -43,9 +45,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Tc003</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
@@ -169,7 +168,172 @@
     <t>Close  application Browser</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>wait For Stock items link</t>
+  </si>
+  <si>
+    <t>//a[.='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Mouse click to Stock items</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Add+ icon </t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add +Icon</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Cofirm button</t>
+  </si>
+  <si>
+    <t>click cofirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[contains(.,'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>categoryTable</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supllier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Hyderbad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Qedge</t>
+  </si>
+  <si>
+    <t>tet@gmail.com</t>
+  </si>
+  <si>
+    <t>Supply Goods for Electronics</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Apple-Macbook</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Blocked</t>
@@ -178,9 +342,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,133 +379,685 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -392,11 +1108,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -420,6 +1139,98 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -733,22 +1544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0EC959-34E9-4E2F-B422-5C901D1D33F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.90625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.1796875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.1328125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6328125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.21875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.109375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="28.75" r="1" spans="1:4" x14ac:dyDescent="1.35">
+    <row ht="28.8" r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,60 +1573,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="120">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="26">
-        <v>48</v>
+      <c r="D5" t="s" s="121">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -825,243 +1636,1284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FF6727-0E52-47F8-AA5A-7BDB66D4C156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.953125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.2265625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.76953125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.953125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="33.109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="1">
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:6" x14ac:dyDescent="0.8">
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="3" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="4" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="5" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F4" t="s" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" t="s" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="6" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="12">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="7" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="8" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="9" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="F8" t="s" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" t="s" s="21">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="18">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="10" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s" s="20">
-        <v>47</v>
-      </c>
-    </row>
-    <row ht="16" r="11" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s" s="22">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="25">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.21875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="27">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="29">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="35">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="37">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="39">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="41">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="43">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="45">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="47">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s" s="49">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s" s="51">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="53">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="55">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="57">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s" s="59">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s" s="61">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s" s="63">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="33.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="36.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.44140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="65">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="67">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="69">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s" s="71">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="73">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="75">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="77">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="79">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="81">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="83">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="85">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="87">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s" s="89">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s" s="91">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s" s="93">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s" s="95">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s" s="97">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9876543217</v>
+      </c>
+      <c r="F19" t="s" s="99">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s" s="101">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8765432345</v>
+      </c>
+      <c r="F21" t="s" s="103">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s" s="105">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="107">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="109">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="111">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="113">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="115">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s" s="117">
+        <v>101</v>
+      </c>
+    </row>
+    <row ht="15.6" r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s" s="119">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E20"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>